--- a/medicine/Enfance/Sharmin_Akter/Sharmin_Akter.xlsx
+++ b/medicine/Enfance/Sharmin_Akter/Sharmin_Akter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sharmin Akter est une militante contre le mariage forcé des enfants au Bangladesh : à l'âge de 15 ans, elle s'oppose à sa mère qui voulait la contraindre au mariage et qui la torture[1]. Elle parvient à s'enfuir. Pour défendre ses droits, mais également pour poursuivre ses études[1], elle refuse le mariage et attaque en Justice, sa mère et son futur mari[2]. Étudiante à l'école Rajapur Pilot Girls High School, elle aspire à devenir avocate afin de lutter contre la tradition du mariage précoce et forcé[3],[1].
-Le 29 mars 2017, elle reçoit de la première dame des États-Unis Melania Trump et du sous-secrétaire d’État aux affaires politiques Thomas A. Shannon, le prix international de la femme de courage[4]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sharmin Akter est une militante contre le mariage forcé des enfants au Bangladesh : à l'âge de 15 ans, elle s'oppose à sa mère qui voulait la contraindre au mariage et qui la torture. Elle parvient à s'enfuir. Pour défendre ses droits, mais également pour poursuivre ses études, elle refuse le mariage et attaque en Justice, sa mère et son futur mari. Étudiante à l'école Rajapur Pilot Girls High School, elle aspire à devenir avocate afin de lutter contre la tradition du mariage précoce et forcé,.
+Le 29 mars 2017, elle reçoit de la première dame des États-Unis Melania Trump et du sous-secrétaire d’État aux affaires politiques Thomas A. Shannon, le prix international de la femme de courage
 </t>
         </is>
       </c>
